--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1188046666666667</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H2">
-        <v>0.356414</v>
+        <v>0.010366</v>
       </c>
       <c r="I2">
-        <v>0.00979853232878679</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="J2">
-        <v>0.009798532328786792</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="N2">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="O2">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="P2">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="Q2">
-        <v>0.004664588025777778</v>
+        <v>7.875395733333334E-05</v>
       </c>
       <c r="R2">
-        <v>0.041981292232</v>
+        <v>0.0007087856160000001</v>
       </c>
       <c r="S2">
-        <v>5.206187134946006E-05</v>
+        <v>5.176413128011083E-07</v>
       </c>
       <c r="T2">
-        <v>5.206187134946006E-05</v>
+        <v>5.176413128011084E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1188046666666667</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H3">
-        <v>0.356414</v>
+        <v>0.010366</v>
       </c>
       <c r="I3">
-        <v>0.00979853232878679</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="J3">
-        <v>0.009798532328786792</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.206284</v>
       </c>
       <c r="O3">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="P3">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="Q3">
-        <v>0.5229893895084444</v>
+        <v>0.01521070443822222</v>
       </c>
       <c r="R3">
-        <v>4.706904505576</v>
+        <v>0.136896339944</v>
       </c>
       <c r="S3">
-        <v>0.005837129916565634</v>
+        <v>9.997832846297342E-05</v>
       </c>
       <c r="T3">
-        <v>0.005837129916565634</v>
+        <v>9.997832846297344E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1188046666666667</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H4">
-        <v>0.356414</v>
+        <v>0.010366</v>
       </c>
       <c r="I4">
-        <v>0.00979853232878679</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="J4">
-        <v>0.009798532328786792</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="N4">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="O4">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="P4">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="Q4">
-        <v>0.3502652248751112</v>
+        <v>0.02580682618288889</v>
       </c>
       <c r="R4">
-        <v>3.152387023876</v>
+        <v>0.232261435646</v>
       </c>
       <c r="S4">
-        <v>0.003909340540871696</v>
+        <v>0.0001696254999351815</v>
       </c>
       <c r="T4">
-        <v>0.003909340540871696</v>
+        <v>0.0001696254999351815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>34.50681299999999</v>
       </c>
       <c r="I5">
-        <v>0.9486611714015168</v>
+        <v>0.8991926531546518</v>
       </c>
       <c r="J5">
-        <v>0.948661171401517</v>
+        <v>0.8991926531546519</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="N5">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="O5">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="P5">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="Q5">
-        <v>0.4516098321826666</v>
+        <v>0.262159760632</v>
       </c>
       <c r="R5">
-        <v>4.064488489643999</v>
+        <v>2.359437845688</v>
       </c>
       <c r="S5">
-        <v>0.005040456489043292</v>
+        <v>0.001723147982047303</v>
       </c>
       <c r="T5">
-        <v>0.005040456489043292</v>
+        <v>0.001723147982047304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>34.50681299999999</v>
       </c>
       <c r="I6">
-        <v>0.9486611714015168</v>
+        <v>0.8991926531546518</v>
       </c>
       <c r="J6">
-        <v>0.948661171401517</v>
+        <v>0.8991926531546519</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.206284</v>
       </c>
       <c r="O6">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="P6">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="Q6">
         <v>50.63408582365466</v>
@@ -818,10 +818,10 @@
         <v>455.706772412892</v>
       </c>
       <c r="S6">
-        <v>0.5651314215705217</v>
+        <v>0.3328124140772141</v>
       </c>
       <c r="T6">
-        <v>0.5651314215705217</v>
+        <v>0.3328124140772141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>34.50681299999999</v>
       </c>
       <c r="I7">
-        <v>0.9486611714015168</v>
+        <v>0.8991926531546518</v>
       </c>
       <c r="J7">
-        <v>0.948661171401517</v>
+        <v>0.8991926531546519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="N7">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="O7">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="P7">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="Q7">
-        <v>33.91150913030467</v>
+        <v>85.90693856998365</v>
       </c>
       <c r="R7">
-        <v>305.203582172742</v>
+        <v>773.1624471298529</v>
       </c>
       <c r="S7">
-        <v>0.378489293341952</v>
+        <v>0.5646570910953905</v>
       </c>
       <c r="T7">
-        <v>0.3784892933419519</v>
+        <v>0.5646570910953905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5036653333333333</v>
+        <v>1.286049666666667</v>
       </c>
       <c r="H8">
-        <v>1.510996</v>
+        <v>3.858149</v>
       </c>
       <c r="I8">
-        <v>0.04154029626969626</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="J8">
-        <v>0.04154029626969627</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="N8">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="O8">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="P8">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="Q8">
-        <v>0.01977524409422222</v>
+        <v>0.02931164400266667</v>
       </c>
       <c r="R8">
-        <v>0.177977196848</v>
+        <v>0.263804796024</v>
       </c>
       <c r="S8">
-        <v>0.0002207132137389349</v>
+        <v>0.0001926622914665525</v>
       </c>
       <c r="T8">
-        <v>0.0002207132137389349</v>
+        <v>0.0001926622914665525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5036653333333333</v>
+        <v>1.286049666666667</v>
       </c>
       <c r="H9">
-        <v>1.510996</v>
+        <v>3.858149</v>
       </c>
       <c r="I9">
-        <v>0.04154029626969626</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="J9">
-        <v>0.04154029626969627</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.206284</v>
       </c>
       <c r="O9">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="P9">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="Q9">
-        <v>2.217182477651555</v>
+        <v>5.661312378701778</v>
       </c>
       <c r="R9">
-        <v>19.954642298864</v>
+        <v>50.951811408316</v>
       </c>
       <c r="S9">
-        <v>0.02474616585041835</v>
+        <v>0.03721119891772067</v>
       </c>
       <c r="T9">
-        <v>0.02474616585041835</v>
+        <v>0.03721119891772068</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5036653333333333</v>
+        <v>1.286049666666667</v>
       </c>
       <c r="H10">
-        <v>1.510996</v>
+        <v>3.858149</v>
       </c>
       <c r="I10">
-        <v>0.04154029626969626</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="J10">
-        <v>0.04154029626969627</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="N10">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="O10">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="P10">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="Q10">
-        <v>1.484928632784889</v>
+        <v>9.605111000452112</v>
       </c>
       <c r="R10">
-        <v>13.364357695064</v>
+        <v>86.44599900406901</v>
       </c>
       <c r="S10">
-        <v>0.01657341720553898</v>
+        <v>0.06313336416644998</v>
       </c>
       <c r="T10">
-        <v>0.01657341720553898</v>
+        <v>0.06313336416644999</v>
       </c>
     </row>
   </sheetData>
